--- a/Assembly Data/Gantry Assembly Data/Gantry map read me.xlsx
+++ b/Assembly Data/Gantry Assembly Data/Gantry map read me.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HEP\Documents\Aerotech gantry\UCSB-Gantry-master-main\V5\Assembly Data\Assmbly Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HEP\Documents\GitHub\UCSB-Gantry-HEP\Assembly Data\Gantry Assembly Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11565" windowHeight="10695"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11565" windowHeight="10695" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="current" sheetId="2" r:id="rId1"/>
+    <sheet name="old" sheetId="1" r:id="rId2"/>
+    <sheet name="syringe" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t xml:space="preserve">For any given sequence with dispenseing </t>
   </si>
@@ -386,18 +388,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="H1" sqref="H1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
@@ -445,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -474,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -503,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -532,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -578,6 +591,63 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M13" t="s">
         <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
